--- a/TNR_JDD/RO/JDD.RO.ADR.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ADR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="1"/>
+    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -129,305 +129,308 @@
     </r>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ID_NUMADR</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>ST_ADR</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>ST_ADRCOM</t>
+  </si>
+  <si>
+    <t>Adresse complémentaire</t>
+  </si>
+  <si>
+    <t>ST_CODPOS</t>
+  </si>
+  <si>
+    <t>Code postal</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>ST_VIL</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>ID_CODPAY</t>
+  </si>
+  <si>
+    <t>Code pays</t>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+  </si>
+  <si>
+    <t>ST_PAY</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>ST_GPS</t>
+  </si>
+  <si>
+    <t>Coordonnées de géolocalisation</t>
+  </si>
+  <si>
+    <t>NU_LATITUDE</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>NU_LONGITUDE</t>
+  </si>
+  <si>
+    <t>ST_SIRET</t>
+  </si>
+  <si>
+    <t>NUMERO DE SIRET</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>ST_RELAPA</t>
+  </si>
+  <si>
+    <t>Numéro de relation APAVE</t>
+  </si>
+  <si>
+    <t>ST_REFEXT</t>
+  </si>
+  <si>
+    <t>NUMERO DE REFERENCE EXTERNE DE RATACHEMENT</t>
+  </si>
+  <si>
+    <t>ST_TYP</t>
+  </si>
+  <si>
+    <t>Type de l'adresse (pour les linéaires)</t>
+  </si>
+  <si>
+    <t>ID_NUMLIG</t>
+  </si>
+  <si>
+    <t>Actif de référence</t>
+  </si>
+  <si>
+    <t>NU_DEBX</t>
+  </si>
+  <si>
+    <t>valeur de repère X de début</t>
+  </si>
+  <si>
+    <t>NU_DEBY</t>
+  </si>
+  <si>
+    <t>valeur de repère Y de début</t>
+  </si>
+  <si>
+    <t>NU_DEBZ</t>
+  </si>
+  <si>
+    <t>valeur de repère Z de début</t>
+  </si>
+  <si>
+    <t>NU_FINX</t>
+  </si>
+  <si>
+    <t>valeur de repère X de fin</t>
+  </si>
+  <si>
+    <t>NU_FINY</t>
+  </si>
+  <si>
+    <t>valeur de repère Y de fin</t>
+  </si>
+  <si>
+    <t>NU_FINZ</t>
+  </si>
+  <si>
+    <t>valeur de repère Z de fin</t>
+  </si>
+  <si>
+    <t>ST_REL</t>
+  </si>
+  <si>
+    <t>type de relation</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>ST_CEDEX</t>
+  </si>
+  <si>
+    <t>Intitulé du cedex</t>
+  </si>
+  <si>
+    <t>NU_CEDEX</t>
+  </si>
+  <si>
+    <t>Numéro du cedex</t>
+  </si>
+  <si>
+    <t>ST_ADRPAR</t>
+  </si>
+  <si>
+    <t>Adresse partagée</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ST_ADRCOM2</t>
+  </si>
+  <si>
+    <t>Complément adresse 2</t>
+  </si>
+  <si>
+    <t>ST_MENSPE</t>
+  </si>
+  <si>
+    <t>Mention spéciale</t>
+  </si>
+  <si>
+    <t>ST_TRAUTICRE</t>
+  </si>
+  <si>
+    <t>Trace utilisateur création</t>
+  </si>
+  <si>
+    <t>ST_TRAUTIUPD</t>
+  </si>
+  <si>
+    <t>Trace utilisateur mise à jour</t>
+  </si>
+  <si>
+    <t>DT_TRACRE</t>
+  </si>
+  <si>
+    <t>Trace date création</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>DT_TRAUPD</t>
+  </si>
+  <si>
+    <t>Trace date mise à jour</t>
+  </si>
+  <si>
+    <t>JM Lafarge</t>
+  </si>
+  <si>
+    <t>Création de l'onglet 001 pour la table ADR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>ADR_ID</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>$VIDE</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>UPD.3 allée de la vigne</t>
+  </si>
+  <si>
+    <t>UPD.Appartement C</t>
+  </si>
+  <si>
+    <t>UPD.68100</t>
+  </si>
+  <si>
+    <t>UPD.MULHOUSE</t>
+  </si>
+  <si>
+    <t>UPD.FRANCE</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>UFRA</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>a_Fournisseur</t>
-  </si>
-  <si>
-    <t>$TAB$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>a_FournisseurSelected</t>
-  </si>
-  <si>
-    <t>$TABSELECTED$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>input_Filtre_Grille</t>
-  </si>
-  <si>
-    <t>td_Grille</t>
-  </si>
-  <si>
-    <t>$FILTREGRILLE$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>EXEMPLES</t>
-  </si>
-  <si>
-    <t>$TDGRILLE$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>ADR</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ID_NUMADR</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>ST_ADR</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>ST_ADRCOM</t>
-  </si>
-  <si>
-    <t>Adresse complémentaire</t>
-  </si>
-  <si>
-    <t>ST_CODPOS</t>
-  </si>
-  <si>
-    <t>Code postal</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>ST_VIL</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>ID_CODPAY</t>
-  </si>
-  <si>
-    <t>Code pays</t>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-  </si>
-  <si>
-    <t>ST_PAY</t>
-  </si>
-  <si>
-    <t>Pays</t>
-  </si>
-  <si>
-    <t>ST_GPS</t>
-  </si>
-  <si>
-    <t>Coordonnées de géolocalisation</t>
-  </si>
-  <si>
-    <t>NU_LATITUDE</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>NU_LONGITUDE</t>
-  </si>
-  <si>
-    <t>ST_SIRET</t>
-  </si>
-  <si>
-    <t>NUMERO DE SIRET</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>ST_RELAPA</t>
-  </si>
-  <si>
-    <t>Numéro de relation APAVE</t>
-  </si>
-  <si>
-    <t>ST_REFEXT</t>
-  </si>
-  <si>
-    <t>NUMERO DE REFERENCE EXTERNE DE RATACHEMENT</t>
-  </si>
-  <si>
-    <t>ST_TYP</t>
-  </si>
-  <si>
-    <t>Type de l'adresse (pour les linéaires)</t>
-  </si>
-  <si>
-    <t>ID_NUMLIG</t>
-  </si>
-  <si>
-    <t>Actif de référence</t>
-  </si>
-  <si>
-    <t>NU_DEBX</t>
-  </si>
-  <si>
-    <t>valeur de repère X de début</t>
-  </si>
-  <si>
-    <t>NU_DEBY</t>
-  </si>
-  <si>
-    <t>valeur de repère Y de début</t>
-  </si>
-  <si>
-    <t>NU_DEBZ</t>
-  </si>
-  <si>
-    <t>valeur de repère Z de début</t>
-  </si>
-  <si>
-    <t>NU_FINX</t>
-  </si>
-  <si>
-    <t>valeur de repère X de fin</t>
-  </si>
-  <si>
-    <t>NU_FINY</t>
-  </si>
-  <si>
-    <t>valeur de repère Y de fin</t>
-  </si>
-  <si>
-    <t>NU_FINZ</t>
-  </si>
-  <si>
-    <t>valeur de repère Z de fin</t>
-  </si>
-  <si>
-    <t>ST_REL</t>
-  </si>
-  <si>
-    <t>type de relation</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>ST_CEDEX</t>
-  </si>
-  <si>
-    <t>Intitulé du cedex</t>
-  </si>
-  <si>
-    <t>NU_CEDEX</t>
-  </si>
-  <si>
-    <t>Numéro du cedex</t>
-  </si>
-  <si>
-    <t>ST_ADRPAR</t>
-  </si>
-  <si>
-    <t>Adresse partagée</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>ST_ADRCOM2</t>
-  </si>
-  <si>
-    <t>Complément adresse 2</t>
-  </si>
-  <si>
-    <t>ST_MENSPE</t>
-  </si>
-  <si>
-    <t>Mention spéciale</t>
-  </si>
-  <si>
-    <t>ST_TRAUTICRE</t>
-  </si>
-  <si>
-    <t>Trace utilisateur création</t>
-  </si>
-  <si>
-    <t>ST_TRAUTIUPD</t>
-  </si>
-  <si>
-    <t>Trace utilisateur mise à jour</t>
-  </si>
-  <si>
-    <t>DT_TRACRE</t>
-  </si>
-  <si>
-    <t>Trace date création</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>DT_TRAUPD</t>
-  </si>
-  <si>
-    <t>Trace date mise à jour</t>
-  </si>
-  <si>
-    <t>JM Lafarge</t>
-  </si>
-  <si>
-    <t>Création de l'onglet 001 pour la table ADR</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>ADR_ID</t>
-  </si>
-  <si>
-    <t>RO.FOU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>$VIDE</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>UPD.3 allée de la vigne</t>
-  </si>
-  <si>
-    <t>UPD.Appartement C</t>
-  </si>
-  <si>
-    <t>UPD.68100</t>
-  </si>
-  <si>
-    <t>UPD.MULHOUSE</t>
-  </si>
-  <si>
-    <t>UPD.FRANCE</t>
-  </si>
-  <si>
-    <t>12/04/2023</t>
-  </si>
-  <si>
-    <t>UFRA</t>
+    <t>BTN_Ajouter</t>
+  </si>
+  <si>
+    <t>BTN_Annuler</t>
+  </si>
+  <si>
+    <t>BTN_Valider</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer']//button[@value='Ajouter']</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer']//button[@value='Valider']</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer']//button[@value='Annuler']</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.CRE.01</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.LEC.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -573,12 +576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
@@ -605,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,12 +667,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA7E3B7"/>
         <bgColor rgb="FFA7E3B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -755,17 +746,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -809,20 +800,14 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="3" xfId="24" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="11" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="21" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="21" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="21" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="21" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="3" xfId="24" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,20 +1084,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>37</v>
+      <c r="A2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
@@ -2096,11 +2081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA800"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2152,360 +2137,360 @@
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4">
         <v>1447</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1"/>
@@ -3285,13 +3270,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF981"/>
+  <dimension ref="A1:AF982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3305,100 +3290,100 @@
   <sheetData>
     <row r="1" spans="1:32" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="K1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="AB1" s="18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AE1" s="18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="13.2">
@@ -3478,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3516,18 +3501,36 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -3537,11 +3540,21 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
+      <c r="X5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
@@ -3585,30 +3598,30 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="30">
+        <v>122</v>
+      </c>
+      <c r="B7" s="23">
         <v>1002</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="28"/>
+      <c r="C7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="21"/>
       <c r="J7">
         <v>0</v>
       </c>
@@ -3616,12 +3629,12 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3645,35 +3658,201 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>114</v>
-      </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28">
+        <v>104</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21">
         <v>0</v>
       </c>
       <c r="Z7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF7" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="I8" s="21"/>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF8" s="22" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF9" s="22" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="11"/>
@@ -6558,7 +6737,7 @@
     <row r="970" spans="1:1" ht="15.75" customHeight="1">
       <c r="A970" s="11"/>
     </row>
-    <row r="971" spans="1:1" ht="13.2">
+    <row r="971" spans="1:1" ht="15.75" customHeight="1">
       <c r="A971" s="11"/>
     </row>
     <row r="972" spans="1:1" ht="13.2">
@@ -6590,6 +6769,9 @@
     </row>
     <row r="981" spans="1:1" ht="13.2">
       <c r="A981" s="11"/>
+    </row>
+    <row r="982" spans="1:1" ht="13.2">
+      <c r="A982" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6598,11 +6780,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -6622,53 +6804,37 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>35</v>
+      <c r="A4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
